--- a/data_example/Calibration_NonLabeled.xlsx
+++ b/data_example/Calibration_NonLabeled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp_Lipidomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\ADViSELipidomics_book\data_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B342201-C098-495B-9C65-1D4F60A64072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964D3A7-02CB-4BC1-8BA3-CDD6A0B61D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="1200" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,34 +36,34 @@
     <t>Name</t>
   </si>
   <si>
-    <t>LPE,LPG,LPC,Cer,SQDG,ChE,DGDG,MGDG</t>
-  </si>
-  <si>
-    <t>ISMix_5ugmL_nonlabeled_1,ISMix_5ugmL_nonlabeled_2,ISMix_5ugmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_3ugmL_nonlabeled_1,ISMix_3ugmL_nonlabeled_2,ISMix_3ugmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_1ugmL_nonlabeled_1,ISMix_1ugmL_nonlabeled_2,ISMix_1ugmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_300ngmL_nonlabeled_1,ISMix_300ngmL_nonlabeled_2,ISMix_300ngmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_100ngmL_nonlabeled_1,ISMix_100ngmL_nonlabeled_2,ISMix_100ngmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_30ngmL_nonlabeled_1,ISMix_30ngmL_nonlabeled_2,ISMix_30ngmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_10ngmL_nonlabeled_1,ISMix_10ngmL_nonlabeled_2,ISMix_10ngmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_3ngmL_nonlabeled_1,ISMix_3ngmL_nonlabeled_2,ISMix_3ngmL_nonlabeled_3</t>
-  </si>
-  <si>
-    <t>ISMix_1ngmL_nonlabeled_1,ISMix_1ngmL_nonlabeled_2,ISMix_1ngmL_nonlabeled_3</t>
+    <t>LPE;LPG;LPC;Cer;SQDG;ChE;DGDG;MGDG</t>
+  </si>
+  <si>
+    <t>ISMix_5ugmL_nonlabeled_1;ISMix_5ugmL_nonlabeled_2;ISMix_5ugmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_3ugmL_nonlabeled_1;ISMix_3ugmL_nonlabeled_2;ISMix_3ugmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_1ugmL_nonlabeled_1;ISMix_1ugmL_nonlabeled_2;ISMix_1ugmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_300ngmL_nonlabeled_1;ISMix_300ngmL_nonlabeled_2;ISMix_300ngmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_100ngmL_nonlabeled_1;ISMix_100ngmL_nonlabeled_2;ISMix_100ngmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_30ngmL_nonlabeled_1;ISMix_30ngmL_nonlabeled_2;ISMix_30ngmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_10ngmL_nonlabeled_1;ISMix_10ngmL_nonlabeled_2;ISMix_10ngmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_3ngmL_nonlabeled_1;ISMix_3ngmL_nonlabeled_2;ISMix_3ngmL_nonlabeled_3</t>
+  </si>
+  <si>
+    <t>ISMix_1ngmL_nonlabeled_1;ISMix_1ngmL_nonlabeled_2;ISMix_1ngmL_nonlabeled_3</t>
   </si>
 </sst>
 </file>
@@ -421,16 +421,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="35.25" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" customWidth="1"/>
+    <col min="3" max="3" width="79.375" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="79.33203125" customWidth="1"/>
+    <col min="5" max="5" width="79.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -463,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -474,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
